--- a/highVolumeTickers.xlsx
+++ b/highVolumeTickers.xlsx
@@ -1,114 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\Repositories\screenerSettings\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE571B5A-A544-4233-AD07-A9C56A628FD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-90" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-90" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>Ticker</t>
-  </si>
-  <si>
-    <t>Industry</t>
-  </si>
-  <si>
-    <t>Date Found</t>
-  </si>
-  <si>
-    <t>Volume</t>
-  </si>
-  <si>
-    <t>Mkt Cap</t>
-  </si>
-  <si>
-    <t>Price when Found</t>
-  </si>
-  <si>
-    <t>% change when found</t>
-  </si>
-  <si>
-    <t>Day 2</t>
-  </si>
-  <si>
-    <t>Day 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Day 4 </t>
-  </si>
-  <si>
-    <t>Day 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Day 6 </t>
-  </si>
-  <si>
-    <t>Day 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Day 8 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Day 9 </t>
-  </si>
-  <si>
-    <t>Day 10</t>
-  </si>
-  <si>
-    <t>Day 11</t>
-  </si>
-  <si>
-    <t>Day 12</t>
-  </si>
-  <si>
-    <t>Day 13</t>
-  </si>
-  <si>
-    <t>Day 14</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="14"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -127,23 +56,82 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -409,155 +397,1811 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:CP20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="B1:O7"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="15.7109375" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col width="20.140625" customWidth="1" min="1" max="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1"/>
-      <c r="C1"/>
-      <c r="D1"/>
-      <c r="E1"/>
-      <c r="F1"/>
-      <c r="G1"/>
-      <c r="H1"/>
-      <c r="I1"/>
-      <c r="J1"/>
-      <c r="K1"/>
-      <c r="L1"/>
-      <c r="M1"/>
-      <c r="N1"/>
-      <c r="O1"/>
+    <row r="1" ht="18.75" customFormat="1" customHeight="1" s="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Ticker</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>BWEN</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>BRID</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>NSYS</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>NYXH</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>SOTK</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>AZ</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>GSMGW</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>CFRX</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>RFL</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>MYMD</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>SKYX</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>GSMG</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>HTPA</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>VINO</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>TH</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>LJPC</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>EPIX</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>COMS</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>RDHL</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>KSPN</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>PHUN</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>VLCN</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>TBLT</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>PLRX</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>BRID</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>NSYS</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>NYXH</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>SOTK</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>AZ</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>GSMGW</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>CFRX</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>RFL</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>MYMD</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>SKYX</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>GSMG</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>HTPA</t>
+        </is>
+      </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>VINO</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>TH</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>LJPC</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
+          <t>EPIX</t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t>COMS</t>
+        </is>
+      </c>
+      <c r="AQ1" t="inlineStr">
+        <is>
+          <t>RDHL</t>
+        </is>
+      </c>
+      <c r="AR1" t="inlineStr">
+        <is>
+          <t>KSPN</t>
+        </is>
+      </c>
+      <c r="AS1" t="inlineStr">
+        <is>
+          <t>PHUN</t>
+        </is>
+      </c>
+      <c r="AT1" t="inlineStr">
+        <is>
+          <t>VLCN</t>
+        </is>
+      </c>
+      <c r="AU1" t="inlineStr">
+        <is>
+          <t>TBLT</t>
+        </is>
+      </c>
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t>PLRX</t>
+        </is>
+      </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Industry</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Packaged Foods</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Electronic Components</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Medical Instruments &amp; Supplies</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Scientific &amp; Technical Instruments</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Aerospace &amp; Defense</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Advertising Agencies</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Biotechnology</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Biotechnology</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Biotechnology</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Consumer Electronics</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Shell Companies</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Real Estate - Diversified</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Oil &amp; Gas Equipment &amp; Services</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Biotechnology</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Biotechnology</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Telecom Services</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Drug Manufacturers - Specialty &amp; Generic</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>Software - Application</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>Software - Application</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>Auto Manufacturers</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Tools &amp; Accessories</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>Biotechnology</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>Packaged Foods</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>Electronic Components</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>Medical Instruments &amp; Supplies</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>Scientific &amp; Technical Instruments</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>Aerospace &amp; Defense</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>Advertising Agencies</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>Biotechnology</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>Biotechnology</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>Biotechnology</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>Consumer Electronics</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>Shell Companies</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>Real Estate - Diversified</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>Oil &amp; Gas Equipment &amp; Services</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>Biotechnology</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>Biotechnology</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>Telecom Services</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>Drug Manufacturers - Specialty &amp; Generic</t>
+        </is>
+      </c>
+      <c r="AR2" t="inlineStr">
+        <is>
+          <t>Software - Application</t>
+        </is>
+      </c>
+      <c r="AS2" t="inlineStr">
+        <is>
+          <t>Software - Application</t>
+        </is>
+      </c>
+      <c r="AT2" t="inlineStr">
+        <is>
+          <t>Auto Manufacturers</t>
+        </is>
+      </c>
+      <c r="AU2" t="inlineStr">
+        <is>
+          <t>Tools &amp; Accessories</t>
+        </is>
+      </c>
+      <c r="AV2" t="inlineStr">
+        <is>
+          <t>Biotechnology</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Date Found</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n">
+        <v>44753</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>44753</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>44753</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>44753</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>44753</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>44753</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>44753</v>
+      </c>
+      <c r="J3" s="2" t="n">
+        <v>44753</v>
+      </c>
+      <c r="K3" s="2" t="n">
+        <v>44753</v>
+      </c>
+      <c r="L3" s="2" t="n">
+        <v>44753</v>
+      </c>
+      <c r="M3" s="2" t="n">
+        <v>44753</v>
+      </c>
+      <c r="N3" s="2" t="n">
+        <v>44753</v>
+      </c>
+      <c r="O3" s="2" t="n">
+        <v>44753</v>
+      </c>
+      <c r="P3" s="2" t="n">
+        <v>44753</v>
+      </c>
+      <c r="Q3" s="2" t="n">
+        <v>44753</v>
+      </c>
+      <c r="R3" s="2" t="n">
+        <v>44753</v>
+      </c>
+      <c r="S3" s="2" t="n">
+        <v>44753</v>
+      </c>
+      <c r="T3" s="2" t="n">
+        <v>44753</v>
+      </c>
+      <c r="U3" s="2" t="n">
+        <v>44753</v>
+      </c>
+      <c r="V3" s="2" t="n">
+        <v>44753</v>
+      </c>
+      <c r="W3" s="2" t="n">
+        <v>44753</v>
+      </c>
+      <c r="X3" s="2" t="n">
+        <v>44753</v>
+      </c>
+      <c r="Y3" s="2" t="n">
+        <v>44753</v>
+      </c>
+      <c r="Z3" s="2" t="n">
+        <v>44753</v>
+      </c>
+      <c r="AA3" s="2" t="n">
+        <v>44753</v>
+      </c>
+      <c r="AB3" s="2" t="n">
+        <v>44753</v>
+      </c>
+      <c r="AC3" s="2" t="n">
+        <v>44753</v>
+      </c>
+      <c r="AD3" s="2" t="n">
+        <v>44753</v>
+      </c>
+      <c r="AE3" s="2" t="n">
+        <v>44753</v>
+      </c>
+      <c r="AF3" s="2" t="n">
+        <v>44753</v>
+      </c>
+      <c r="AG3" s="2" t="n">
+        <v>44753</v>
+      </c>
+      <c r="AH3" s="2" t="n">
+        <v>44753</v>
+      </c>
+      <c r="AI3" s="2" t="n">
+        <v>44753</v>
+      </c>
+      <c r="AJ3" s="2" t="n">
+        <v>44753</v>
+      </c>
+      <c r="AK3" s="2" t="n">
+        <v>44753</v>
+      </c>
+      <c r="AL3" s="2" t="n">
+        <v>44753</v>
+      </c>
+      <c r="AM3" s="2" t="n">
+        <v>44753</v>
+      </c>
+      <c r="AN3" s="2" t="n">
+        <v>44753</v>
+      </c>
+      <c r="AO3" s="2" t="n">
+        <v>44753</v>
+      </c>
+      <c r="AP3" s="2" t="n">
+        <v>44753</v>
+      </c>
+      <c r="AQ3" s="2" t="n">
+        <v>44753</v>
+      </c>
+      <c r="AR3" s="2" t="n">
+        <v>44753</v>
+      </c>
+      <c r="AS3" s="2" t="n">
+        <v>44753</v>
+      </c>
+      <c r="AT3" s="2" t="n">
+        <v>44753</v>
+      </c>
+      <c r="AU3" s="2" t="n">
+        <v>44753</v>
+      </c>
+      <c r="AV3" s="2" t="n">
+        <v>44753</v>
+      </c>
+      <c r="AW3" s="2" t="n"/>
+      <c r="AX3" s="2" t="n"/>
+      <c r="AY3" s="2" t="n"/>
+      <c r="AZ3" s="2" t="n"/>
+      <c r="BA3" s="2" t="n"/>
+      <c r="BB3" s="2" t="n"/>
+      <c r="BC3" s="2" t="n"/>
+      <c r="BD3" s="2" t="n"/>
+      <c r="BE3" s="2" t="n"/>
+      <c r="BF3" s="2" t="n"/>
+      <c r="BG3" s="2" t="n"/>
+      <c r="BH3" s="2" t="n"/>
+      <c r="BI3" s="2" t="n"/>
+      <c r="BJ3" s="2" t="n"/>
+      <c r="BK3" s="2" t="n"/>
+      <c r="BL3" s="2" t="n"/>
+      <c r="BM3" s="2" t="n"/>
+      <c r="BN3" s="2" t="n"/>
+      <c r="BO3" s="2" t="n"/>
+      <c r="BP3" s="2" t="n"/>
+      <c r="BQ3" s="2" t="n"/>
+      <c r="BR3" s="2" t="n"/>
+      <c r="BS3" s="2" t="n"/>
+      <c r="BT3" s="2" t="n"/>
+      <c r="BU3" s="2" t="n"/>
+      <c r="BV3" s="2" t="n"/>
+      <c r="BW3" s="2" t="n"/>
+      <c r="BX3" s="2" t="n"/>
+      <c r="BY3" s="2" t="n"/>
+      <c r="BZ3" s="2" t="n"/>
+      <c r="CA3" s="2" t="n"/>
+      <c r="CB3" s="2" t="n"/>
+      <c r="CC3" s="2" t="n"/>
+      <c r="CD3" s="2" t="n"/>
+      <c r="CE3" s="2" t="n"/>
+      <c r="CF3" s="2" t="n"/>
+      <c r="CG3" s="2" t="n"/>
+      <c r="CH3" s="2" t="n"/>
+      <c r="CI3" s="2" t="n"/>
+      <c r="CJ3" s="2" t="n"/>
+      <c r="CK3" s="2" t="n"/>
+      <c r="CL3" s="2" t="n"/>
+      <c r="CM3" s="2" t="n"/>
+      <c r="CN3" s="2" t="n"/>
+      <c r="CO3" s="2" t="n"/>
+      <c r="CP3" s="2" t="n"/>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Volume</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>19478</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>53128</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81919</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>104075</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>552654</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>558901</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>1078515</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>1207798</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>1222869</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>1278838</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>1306440</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>1501671</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>1513230</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>3095812</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>4689521</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>5723671</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>15161271</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>24525468</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>26536250</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>31001481</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>43871683</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>44646649</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>62174782</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>19478</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>53128</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>81919</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>104075</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>552654</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>558901</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>1078515</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>1207798</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>1222869</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>1278838</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>1306440</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>1501671</t>
+        </is>
+      </c>
+      <c r="AL4" t="inlineStr">
+        <is>
+          <t>1513230</t>
+        </is>
+      </c>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>3095812</t>
+        </is>
+      </c>
+      <c r="AN4" t="inlineStr">
+        <is>
+          <t>4689521</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>5723671</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>15161271</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
+        <is>
+          <t>24525468</t>
+        </is>
+      </c>
+      <c r="AR4" t="inlineStr">
+        <is>
+          <t>26536250</t>
+        </is>
+      </c>
+      <c r="AS4" t="inlineStr">
+        <is>
+          <t>31001481</t>
+        </is>
+      </c>
+      <c r="AT4" t="inlineStr">
+        <is>
+          <t>43871683</t>
+        </is>
+      </c>
+      <c r="AU4" t="inlineStr">
+        <is>
+          <t>44646649</t>
+        </is>
+      </c>
+      <c r="AV4" t="inlineStr">
+        <is>
+          <t>62174782</t>
+        </is>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Mkt Cap</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>117.75M</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>36.34M</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>200.51M</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>113.71M</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>96.70M</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>138.09M</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>42.60M</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>113.81M</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>177.59M</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>57.20M</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>370.88M</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>7.00M</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>586.50M</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>86.89M</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>115.00M</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>14.78M</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>49.40M</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>5.40M</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>112.50M</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>37.50M</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>2.71M</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>316.84M</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>117.75M</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>36.34M</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>200.51M</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>113.71M</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>96.70M</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>138.09M</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>42.60M</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>113.81M</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>177.59M</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>57.20M</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>370.88M</t>
+        </is>
+      </c>
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t>7.00M</t>
+        </is>
+      </c>
+      <c r="AM5" t="inlineStr">
+        <is>
+          <t>586.50M</t>
+        </is>
+      </c>
+      <c r="AN5" t="inlineStr">
+        <is>
+          <t>86.89M</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>115.00M</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>14.78M</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>49.40M</t>
+        </is>
+      </c>
+      <c r="AR5" t="inlineStr">
+        <is>
+          <t>5.40M</t>
+        </is>
+      </c>
+      <c r="AS5" t="inlineStr">
+        <is>
+          <t>112.50M</t>
+        </is>
+      </c>
+      <c r="AT5" t="inlineStr">
+        <is>
+          <t>37.50M</t>
+        </is>
+      </c>
+      <c r="AU5" t="inlineStr">
+        <is>
+          <t>2.71M</t>
+        </is>
+      </c>
+      <c r="AV5" t="inlineStr">
+        <is>
+          <t>316.84M</t>
+        </is>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Price when Found</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>14.40</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>9.88</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>19.70</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>14.40</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>16.25</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>9.88</t>
+        </is>
+      </c>
+      <c r="AL6" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="AM6" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="AN6" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="AR6" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="AS6" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="AT6" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="AU6" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="AV6" t="inlineStr">
+        <is>
+          <t>19.70</t>
+        </is>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>% change when found</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>7.87%</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.45%</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>14.14%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.84%</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>-6.42%</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1.03%</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>1.36%</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>8.79%</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>1.41%</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>29.77%</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>30.68%</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>-0.10%</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>-1.61%</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>12.99%</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>81.29%</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>0.37%</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>18.71%</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>11.21%</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>153.31%</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>13.52%</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>45.62%</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>23.27%</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>121.85%</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>7.87%</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>10.45%</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>14.14%</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>5.84%</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>-6.42%</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>1.03%</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>1.36%</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>8.79%</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>1.41%</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>29.77%</t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>30.68%</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>-0.10%</t>
+        </is>
+      </c>
+      <c r="AL7" t="inlineStr">
+        <is>
+          <t>-1.61%</t>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr">
+        <is>
+          <t>12.99%</t>
+        </is>
+      </c>
+      <c r="AN7" t="inlineStr">
+        <is>
+          <t>81.29%</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>0.37%</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
+        <is>
+          <t>18.71%</t>
+        </is>
+      </c>
+      <c r="AQ7" t="inlineStr">
+        <is>
+          <t>11.21%</t>
+        </is>
+      </c>
+      <c r="AR7" t="inlineStr">
+        <is>
+          <t>153.31%</t>
+        </is>
+      </c>
+      <c r="AS7" t="inlineStr">
+        <is>
+          <t>13.52%</t>
+        </is>
+      </c>
+      <c r="AT7" t="inlineStr">
+        <is>
+          <t>45.62%</t>
+        </is>
+      </c>
+      <c r="AU7" t="inlineStr">
+        <is>
+          <t>23.27%</t>
+        </is>
+      </c>
+      <c r="AV7" t="inlineStr">
+        <is>
+          <t>121.85%</t>
+        </is>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Day 2</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1.565</v>
+      </c>
+      <c r="C8" t="n">
+        <v>14.73</v>
+      </c>
+      <c r="D8" t="n">
+        <v>16.44</v>
+      </c>
+      <c r="E8" t="n">
+        <v>8.99</v>
+      </c>
+      <c r="F8" t="n">
+        <v>7.617</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2.769</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N8" t="n">
+        <v>9.880000000000001</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="P8" t="n">
+        <v>8.59</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.213</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.095</v>
+      </c>
+      <c r="U8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.362</v>
+      </c>
+      <c r="W8" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="X8" t="n">
+        <v>2.482</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>19.753</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Day 3</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1.565</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Day 4 </t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1.565</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Day 5</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1.565</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Day 6 </t>
+        </is>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Day 7</t>
+        </is>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>13</v>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Day 8 </t>
+        </is>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>14</v>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Day 9 </t>
+        </is>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>15</v>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Day 10</t>
+        </is>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>16</v>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Day 11</t>
+        </is>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>17</v>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Day 12</t>
+        </is>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Day 13</t>
+        </is>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Day 14</t>
+        </is>
       </c>
     </row>
   </sheetData>
